--- a/report/Report-Inspection-Sarana Bantu Pemanduan 2.xlsx
+++ b/report/Report-Inspection-Sarana Bantu Pemanduan 2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="196">
   <si>
     <t>CHECK LIST VERIFIKASI DOKUMEN SARANA BANTU DAN PRASARANA PEMANDUAN</t>
   </si>
@@ -703,6 +703,9 @@
   </si>
   <si>
     <t>: ${pelaksana} ${cabang}</t>
+  </si>
+  <si>
+    <t>: ${pelaksana} Cabang ${cabang}</t>
   </si>
 </sst>
 </file>
@@ -986,48 +989,6 @@
   </cellStyleXfs>
   <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1111,16 +1072,58 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1406,7 +1409,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1422,599 +1425,606 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>194</v>
+      <c r="C4" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="18" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="51"/>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19">
+      <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
     </row>
     <row r="18" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="18" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="28"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="29">
+      <c r="A19" s="15">
         <v>1</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
     </row>
     <row r="20" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="29">
+      <c r="A20" s="15">
         <v>2</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
     </row>
     <row r="21" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A21" s="29">
+      <c r="A21" s="15">
         <v>3</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
     </row>
     <row r="22" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="19">
+      <c r="A22" s="5">
         <v>4</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="29">
+      <c r="A23" s="15">
         <v>5</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
     </row>
     <row r="24" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="19">
+      <c r="A24" s="5">
         <v>6</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
     </row>
     <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="29">
+      <c r="A25" s="15">
         <v>7</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="17"/>
+      <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="18" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="13"/>
+      <c r="G33" s="51"/>
     </row>
     <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="40"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="41"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="27"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="40"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="41"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="27"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="40"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="41"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="40"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="41"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="27"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="42"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="44"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="14"/>
+      <c r="B47" s="48"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="11"/>
+      <c r="B52" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="L17:N17"/>
@@ -2029,13 +2039,6 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="80" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2060,1226 +2063,1190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="49"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="49"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="49"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="49"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="49"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="49"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47" t="s">
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="49"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="49"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47" t="s">
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="49"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="35"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47" t="s">
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="49"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="35"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13" t="s">
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="7" t="s">
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="7" t="s">
+      <c r="G25" s="51"/>
+      <c r="H25" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="4" t="s">
+      <c r="G27" s="60"/>
+      <c r="H27" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="54"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="4" t="s">
+      <c r="B28" s="40"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="41"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="54"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="4" t="s">
+      <c r="B29" s="40"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="41"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="27"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="5" t="s">
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="4" t="s">
+      <c r="G30" s="60"/>
+      <c r="H30" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="39"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="25"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B31" s="54"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="41"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B32" s="55"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="44"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="5" t="s">
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="4" t="s">
+      <c r="G33" s="60"/>
+      <c r="H33" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="41"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="27"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B34" s="55"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="44"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="30"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="5" t="s">
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="4" t="s">
+      <c r="G35" s="60"/>
+      <c r="H35" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="39"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="25"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B36" s="54"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="41"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="27"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B37" s="54"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="41"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="27"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B38" s="54"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="41"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="27"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B39" s="55"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="44"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="30"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="62" t="s">
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="63" t="s">
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="62" t="s">
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62" t="s">
+      <c r="G43" s="57"/>
+      <c r="H43" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="I43" s="62"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
     </row>
     <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="56" t="s">
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="G44" s="56" t="s">
+      <c r="G44" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="56" t="s">
+      <c r="H44" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="I44" s="56" t="s">
+      <c r="I44" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="49"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="35"/>
     </row>
     <row r="46" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="19">
+      <c r="B46" s="5">
         <v>1</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D46" s="47"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="59" t="str">
+      <c r="D46" s="33"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="45" t="str">
         <f t="shared" ref="F46:F51" si="0">IF(OR(H46&lt;&gt;"",I46&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G46" s="59" t="s">
+      <c r="G46" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="H46" s="59" t="s">
+      <c r="H46" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="I46" s="59" t="s">
+      <c r="I46" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="J46" s="48"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="49"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="35"/>
     </row>
     <row r="47" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="19">
+      <c r="B47" s="5">
         <v>2</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="59" t="str">
+      <c r="D47" s="33"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="45" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G47" s="59" t="s">
+      <c r="G47" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="H47" s="59" t="s">
+      <c r="H47" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="I47" s="59" t="s">
+      <c r="I47" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="J47" s="48"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="49"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="35"/>
     </row>
     <row r="48" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B48" s="19">
+      <c r="B48" s="5">
         <v>3</v>
       </c>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="47"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="59" t="str">
+      <c r="D48" s="33"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="45" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G48" s="59" t="s">
+      <c r="G48" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="H48" s="59" t="s">
+      <c r="H48" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="I48" s="59" t="s">
+      <c r="I48" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="J48" s="48"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="49"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="35"/>
     </row>
     <row r="49" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="19">
+      <c r="B49" s="5">
         <v>4</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="59" t="str">
+      <c r="D49" s="33"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="45" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G49" s="59" t="s">
+      <c r="G49" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="H49" s="59" t="s">
+      <c r="H49" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="I49" s="59" t="s">
+      <c r="I49" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="J49" s="48"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="49"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="35"/>
     </row>
     <row r="50" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="19">
+      <c r="B50" s="5">
         <v>5</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="D50" s="47"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="59" t="str">
+      <c r="D50" s="33"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="45" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G50" s="59" t="s">
+      <c r="G50" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="H50" s="59" t="s">
+      <c r="H50" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="I50" s="59" t="s">
+      <c r="I50" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="J50" s="48"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="49"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="35"/>
     </row>
     <row r="51" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="19">
+      <c r="B51" s="5">
         <v>6</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="C51" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="47"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="59" t="str">
+      <c r="D51" s="33"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="45" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G51" s="59" t="s">
+      <c r="G51" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="H51" s="59" t="s">
+      <c r="H51" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="I51" s="59" t="s">
+      <c r="I51" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="J51" s="48"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="49"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="35"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="49"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="35"/>
     </row>
     <row r="53" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="51">
+      <c r="B53" s="37">
         <v>1</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="64" t="str">
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="54" t="str">
         <f>IF(OR(H53&lt;&gt;"",I53&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="H53" s="64" t="s">
+      <c r="H53" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I53" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="J53" s="53"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="25"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B54" s="54"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="41"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="27"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B55" s="55"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="44"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="30"/>
     </row>
     <row r="56" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="51">
+      <c r="B56" s="37">
         <v>2</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="64" t="str">
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="54" t="str">
         <f>IF(OR(H56&lt;&gt;"",I56&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G56" s="64" t="s">
+      <c r="G56" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I56" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="J56" s="53"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="25"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B57" s="55"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="64" t="s">
+      <c r="B57" s="41"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="I57" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="J57" s="42"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="44"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="30"/>
     </row>
     <row r="58" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B58" s="19">
+      <c r="B58" s="5">
         <v>3</v>
       </c>
-      <c r="C58" s="48" t="s">
+      <c r="C58" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="D58" s="47"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="59" t="str">
+      <c r="D58" s="33"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="45" t="str">
         <f>IF(OR(H58&lt;&gt;"",I58&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G58" s="60" t="s">
+      <c r="G58" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="H58" s="59" t="s">
+      <c r="H58" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="I58" s="60" t="s">
+      <c r="I58" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="J58" s="48"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="49"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="35"/>
     </row>
     <row r="59" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="51">
+      <c r="B59" s="37">
         <v>4</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="64" t="str">
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="54" t="str">
         <f>IF(OR(H59&lt;&gt;"",I59&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="H59" s="64" t="s">
+      <c r="H59" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="I59" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="J59" s="53"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="25"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B60" s="55"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="4" t="s">
+      <c r="B60" s="41"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="H60" s="64" t="s">
+      <c r="H60" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="I60" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="J60" s="42"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="44"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="30"/>
     </row>
     <row r="61" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B61" s="19">
+      <c r="B61" s="5">
         <v>5</v>
       </c>
-      <c r="C61" s="48" t="s">
+      <c r="C61" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="D61" s="47"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="59" t="str">
+      <c r="D61" s="33"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="45" t="str">
         <f>IF(OR(H61&lt;&gt;"",I61&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G61" s="60" t="s">
+      <c r="G61" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="H61" s="59" t="s">
+      <c r="H61" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="I61" s="60" t="s">
+      <c r="I61" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="J61" s="48"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="49"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="35"/>
     </row>
     <row r="62" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="19">
+      <c r="B62" s="5">
         <v>6</v>
       </c>
-      <c r="C62" s="48" t="s">
+      <c r="C62" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="D62" s="47"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="59" t="str">
+      <c r="D62" s="33"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="45" t="str">
         <f>IF(OR(H62&lt;&gt;"",I62&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G62" s="60" t="s">
+      <c r="G62" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="H62" s="60" t="s">
+      <c r="H62" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="I62" s="60" t="s">
+      <c r="I62" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="J62" s="48"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="49"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="35"/>
     </row>
     <row r="63" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="51">
+      <c r="B63" s="37">
         <v>7</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C63" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="59" t="str">
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="45" t="str">
         <f>IF(OR(H63&lt;&gt;"",I63&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G63" s="52" t="s">
+      <c r="G63" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="H63" s="21" t="s">
+      <c r="H63" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="I63" s="52" t="s">
+      <c r="I63" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="J63" s="53"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="25"/>
     </row>
     <row r="64" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B64" s="19">
+      <c r="B64" s="5">
         <v>8</v>
       </c>
-      <c r="C64" s="48" t="s">
+      <c r="C64" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="61"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="59" t="str">
+      <c r="D64" s="47"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="45" t="str">
         <f>IF(OR(H64&lt;&gt;"",I64&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G64" s="60" t="s">
+      <c r="G64" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="H64" s="59" t="s">
+      <c r="H64" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="I64" s="60" t="s">
+      <c r="I64" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="J64" s="48"/>
-      <c r="K64" s="61"/>
-      <c r="L64" s="49"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="35"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B66" s="37" t="s">
+      <c r="B66" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="39"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="25"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B67" s="40"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="41"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="27"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B68" s="40"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="33"/>
-      <c r="L68" s="41"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="27"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B69" s="40"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="41"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="27"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B70" s="40"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="41"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="27"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B71" s="42"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="44"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="30"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
     </row>
     <row r="78" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="C59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="C56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="C53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:E44"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:L44"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C33:E34"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="C35:E39"/>
-    <mergeCell ref="F35:G39"/>
-    <mergeCell ref="H35:I39"/>
-    <mergeCell ref="C27:E29"/>
-    <mergeCell ref="F27:G29"/>
-    <mergeCell ref="H27:I29"/>
-    <mergeCell ref="C30:E32"/>
-    <mergeCell ref="F30:G32"/>
-    <mergeCell ref="H30:I32"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C17:L17"/>
@@ -3289,6 +3256,42 @@
     <mergeCell ref="J24:L26"/>
     <mergeCell ref="F25:G26"/>
     <mergeCell ref="H25:I26"/>
+    <mergeCell ref="C27:E29"/>
+    <mergeCell ref="F27:G29"/>
+    <mergeCell ref="H27:I29"/>
+    <mergeCell ref="C30:E32"/>
+    <mergeCell ref="F30:G32"/>
+    <mergeCell ref="H30:I32"/>
+    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="C35:E39"/>
+    <mergeCell ref="F35:G39"/>
+    <mergeCell ref="H35:I39"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:E44"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:L44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="C56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="C59:E60"/>
+    <mergeCell ref="F59:F60"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/report/Report-Inspection-Sarana Bantu Pemanduan 2.xlsx
+++ b/report/Report-Inspection-Sarana Bantu Pemanduan 2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="204">
   <si>
     <t>CHECK LIST VERIFIKASI DOKUMEN SARANA BANTU DAN PRASARANA PEMANDUAN</t>
   </si>
@@ -706,6 +706,30 @@
   </si>
   <si>
     <t>: ${pelaksana} Cabang ${cabang}</t>
+  </si>
+  <si>
+    <t>${table:operator.valid}</t>
+  </si>
+  <si>
+    <t>${table:operator.tidakvalid}</t>
+  </si>
+  <si>
+    <t>${table:operator.tidakada}</t>
+  </si>
+  <si>
+    <t>${table:operator.keterangan}</t>
+  </si>
+  <si>
+    <t>${table:komunikasi.valid}</t>
+  </si>
+  <si>
+    <t>${table:komunikasi.tidakvalid}</t>
+  </si>
+  <si>
+    <t>${table:komunikasi.tidakada}</t>
+  </si>
+  <si>
+    <t>${table:komunikasi.keterangan}</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1075,57 +1099,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1408,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1486,28 +1511,28 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51" t="s">
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1517,7 +1542,7 @@
       <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="51"/>
+      <c r="G11" s="49"/>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -1569,30 +1594,30 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
     </row>
     <row r="18" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1835,28 +1860,28 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51" t="s">
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
@@ -1866,9 +1891,9 @@
       <c r="F33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="51"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G33" s="49"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="22" t="s">
         <v>57</v>
       </c>
@@ -1878,10 +1903,18 @@
       <c r="C34" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="D34" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
@@ -1927,10 +1960,18 @@
       <c r="C38" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
+      <c r="D38" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
@@ -2011,20 +2052,13 @@
       <c r="B51" s="31"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="49"/>
+      <c r="B52" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:G11"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="L17:N17"/>
@@ -2039,6 +2073,13 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="80" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2063,20 +2104,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2114,18 +2155,18 @@
       <c r="B8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
@@ -2253,18 +2294,18 @@
       <c r="B17" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="34" t="s">
@@ -2347,103 +2388,103 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51" t="s">
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="65" t="s">
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51" t="s">
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="65" t="s">
+      <c r="G25" s="49"/>
+      <c r="H25" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="60" t="s">
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="55" t="s">
+      <c r="G27" s="57"/>
+      <c r="H27" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="I27" s="55"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="39"/>
       <c r="K27" s="24"/>
       <c r="L27" s="25"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="40"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="55" t="s">
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="I28" s="55"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="26"/>
       <c r="K28" s="19"/>
       <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29" s="40"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="55" t="s">
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="I29" s="55"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="26"/>
       <c r="K29" s="19"/>
       <c r="L29" s="27"/>
@@ -2452,45 +2493,45 @@
       <c r="B30" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="60" t="s">
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="60"/>
-      <c r="H30" s="55" t="s">
+      <c r="G30" s="57"/>
+      <c r="H30" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="I30" s="55"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="39"/>
       <c r="K30" s="24"/>
       <c r="L30" s="25"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B31" s="40"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
       <c r="J31" s="26"/>
       <c r="K31" s="19"/>
       <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B32" s="41"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="28"/>
       <c r="K32" s="29"/>
       <c r="L32" s="30"/>
@@ -2499,32 +2540,32 @@
       <c r="B33" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60" t="s">
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="55" t="s">
+      <c r="G33" s="57"/>
+      <c r="H33" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="I33" s="55"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="26"/>
       <c r="K33" s="19"/>
       <c r="L33" s="27"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B34" s="41"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
       <c r="J34" s="28"/>
       <c r="K34" s="29"/>
       <c r="L34" s="30"/>
@@ -2533,71 +2574,71 @@
       <c r="B35" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="60" t="s">
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="G35" s="60"/>
-      <c r="H35" s="55" t="s">
+      <c r="G35" s="57"/>
+      <c r="H35" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="I35" s="55"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="39"/>
       <c r="K35" s="24"/>
       <c r="L35" s="25"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B36" s="40"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="26"/>
       <c r="K36" s="19"/>
       <c r="L36" s="27"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B37" s="40"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
       <c r="J37" s="26"/>
       <c r="K37" s="19"/>
       <c r="L37" s="27"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B38" s="40"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
       <c r="J38" s="26"/>
       <c r="K38" s="19"/>
       <c r="L38" s="27"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B39" s="41"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
       <c r="J39" s="28"/>
       <c r="K39" s="29"/>
       <c r="L39" s="30"/>
@@ -2611,48 +2652,48 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="57" t="s">
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="58" t="s">
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57" t="s">
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57" t="s">
+      <c r="G43" s="62"/>
+      <c r="H43" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="I43" s="57"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
     </row>
     <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
       <c r="F44" s="42" t="s">
         <v>124</v>
       </c>
@@ -2665,9 +2706,9 @@
       <c r="I44" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B45" s="43" t="s">
@@ -2863,22 +2904,22 @@
       <c r="B53" s="37">
         <v>1</v>
       </c>
-      <c r="C53" s="53" t="s">
+      <c r="C53" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="54" t="str">
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="64" t="str">
         <f>IF(OR(H53&lt;&gt;"",I53&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G53" s="55" t="s">
+      <c r="G53" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="H53" s="54" t="s">
+      <c r="H53" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="I53" s="55" t="s">
+      <c r="I53" s="58" t="s">
         <v>158</v>
       </c>
       <c r="J53" s="39"/>
@@ -2887,26 +2928,26 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B54" s="40"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="55"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="58"/>
       <c r="J54" s="26"/>
       <c r="K54" s="19"/>
       <c r="L54" s="27"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55" s="41"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="55"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="58"/>
       <c r="J55" s="28"/>
       <c r="K55" s="29"/>
       <c r="L55" s="30"/>
@@ -2915,22 +2956,22 @@
       <c r="B56" s="37">
         <v>2</v>
       </c>
-      <c r="C56" s="53" t="s">
+      <c r="C56" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="54" t="str">
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="64" t="str">
         <f>IF(OR(H56&lt;&gt;"",I56&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G56" s="54" t="s">
+      <c r="G56" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="H56" s="55" t="s">
+      <c r="H56" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="I56" s="55" t="s">
+      <c r="I56" s="58" t="s">
         <v>162</v>
       </c>
       <c r="J56" s="39"/>
@@ -2939,17 +2980,17 @@
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B57" s="41"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54" t="s">
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="H57" s="55" t="s">
+      <c r="H57" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="I57" s="55" t="s">
+      <c r="I57" s="58" t="s">
         <v>165</v>
       </c>
       <c r="J57" s="28"/>
@@ -2986,22 +3027,22 @@
       <c r="B59" s="37">
         <v>4</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="54" t="str">
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="64" t="str">
         <f>IF(OR(H59&lt;&gt;"",I59&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G59" s="55" t="s">
+      <c r="G59" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="H59" s="54" t="s">
+      <c r="H59" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="I59" s="55" t="s">
+      <c r="I59" s="58" t="s">
         <v>173</v>
       </c>
       <c r="J59" s="39"/>
@@ -3010,17 +3051,17 @@
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B60" s="41"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="55" t="s">
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="H60" s="54" t="s">
+      <c r="H60" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="I60" s="55" t="s">
+      <c r="I60" s="58" t="s">
         <v>176</v>
       </c>
       <c r="J60" s="28"/>
@@ -3083,11 +3124,11 @@
       <c r="B63" s="37">
         <v>7</v>
       </c>
-      <c r="C63" s="52" t="s">
+      <c r="C63" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
       <c r="F63" s="45" t="str">
         <f>IF(OR(H63&lt;&gt;"",I63&lt;&gt;""), "", "")</f>
         <v></v>
@@ -3247,6 +3288,42 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="C59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="C56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="C53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:E44"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:L44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="C35:E39"/>
+    <mergeCell ref="F35:G39"/>
+    <mergeCell ref="H35:I39"/>
+    <mergeCell ref="C27:E29"/>
+    <mergeCell ref="F27:G29"/>
+    <mergeCell ref="H27:I29"/>
+    <mergeCell ref="C30:E32"/>
+    <mergeCell ref="F30:G32"/>
+    <mergeCell ref="H30:I32"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C17:L17"/>
@@ -3256,42 +3333,6 @@
     <mergeCell ref="J24:L26"/>
     <mergeCell ref="F25:G26"/>
     <mergeCell ref="H25:I26"/>
-    <mergeCell ref="C27:E29"/>
-    <mergeCell ref="F27:G29"/>
-    <mergeCell ref="H27:I29"/>
-    <mergeCell ref="C30:E32"/>
-    <mergeCell ref="F30:G32"/>
-    <mergeCell ref="H30:I32"/>
-    <mergeCell ref="C33:E34"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="C35:E39"/>
-    <mergeCell ref="F35:G39"/>
-    <mergeCell ref="H35:I39"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:E44"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:L44"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="C56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="C59:E60"/>
-    <mergeCell ref="F59:F60"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/report/Report-Inspection-Sarana Bantu Pemanduan 2.xlsx
+++ b/report/Report-Inspection-Sarana Bantu Pemanduan 2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="210">
   <si>
     <t>CHECK LIST VERIFIKASI DOKUMEN SARANA BANTU DAN PRASARANA PEMANDUAN</t>
   </si>
@@ -730,6 +730,24 @@
   </si>
   <si>
     <t>${table:komunikasi.keterangan}</t>
+  </si>
+  <si>
+    <t>${nama_kkm}</t>
+  </si>
+  <si>
+    <t>${kkm_jabatan}</t>
+  </si>
+  <si>
+    <t>${v01}</t>
+  </si>
+  <si>
+    <t>${tv01}</t>
+  </si>
+  <si>
+    <t>${ta01}</t>
+  </si>
+  <si>
+    <t>${keterangan_kkm}</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1029,9 +1047,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1096,17 +1111,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1120,37 +1169,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1433,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:G38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1450,15 +1469,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1486,15 +1505,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -1511,28 +1530,28 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49" t="s">
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1542,7 +1561,7 @@
       <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="49"/>
+      <c r="G11" s="52"/>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -1568,13 +1587,28 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
+      <c r="A13" s="18">
+        <v>2</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="67"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -1594,17 +1628,17 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
@@ -1616,104 +1650,104 @@
       <c r="N17" s="51"/>
     </row>
     <row r="18" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="14"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
         <v>1</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
     </row>
     <row r="20" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <v>2</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
     </row>
     <row r="21" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <v>3</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
@@ -1722,50 +1756,50 @@
       <c r="B22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <v>5</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
     </row>
     <row r="24" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -1774,50 +1808,50 @@
       <c r="B24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
     </row>
     <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="15">
+      <c r="A25" s="14">
         <v>7</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -1825,15 +1859,15 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
@@ -1841,15 +1875,15 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
@@ -1860,28 +1894,28 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49" t="s">
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
@@ -1891,28 +1925,28 @@
       <c r="F33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="49"/>
+      <c r="G33" s="52"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="D34" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="F34" s="66" t="s">
+      <c r="F34" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="21" t="s">
         <v>199</v>
       </c>
     </row>
@@ -1951,89 +1985,89 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="E38" s="66" t="s">
+      <c r="E38" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="F38" s="66" t="s">
+      <c r="F38" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="21" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="26"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="27"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="26"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="27"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="26"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="27"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="26"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="27"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="28"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="48"/>
+      <c r="B47" s="49"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
@@ -2048,8 +2082,8 @@
       <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="50" t="s">
@@ -2059,6 +2093,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="L17:N17"/>
@@ -2073,13 +2114,6 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="80" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2104,20 +2138,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2152,135 +2186,135 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34" t="s">
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="35"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="34"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="35"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="34"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34" t="s">
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="35"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="34"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="35"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="34"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="35"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="34"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="35"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="34"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -2291,93 +2325,93 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33" t="s">
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="35"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="34"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="35"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="34"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33" t="s">
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="35"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="34"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33" t="s">
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="35"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="34"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
@@ -2388,156 +2422,156 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49" t="s">
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="55" t="s">
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="49"/>
-      <c r="H25" s="55" t="s">
+      <c r="G25" s="52"/>
+      <c r="H25" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="57" t="s">
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="58" t="s">
+      <c r="G27" s="61"/>
+      <c r="H27" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="I27" s="58"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="25"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="40"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="58" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="I28" s="58"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="27"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="26"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="40"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="58" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="I29" s="58"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="27"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="26"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="57" t="s">
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="57"/>
-      <c r="H30" s="58" t="s">
+      <c r="G30" s="61"/>
+      <c r="H30" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="I30" s="58"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="25"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B31" s="40"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="27"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="26"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B32" s="41"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="30"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="29"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="60" t="s">
@@ -2545,103 +2579,103 @@
       </c>
       <c r="D33" s="60"/>
       <c r="E33" s="60"/>
-      <c r="F33" s="57" t="s">
+      <c r="F33" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="G33" s="57"/>
-      <c r="H33" s="58" t="s">
+      <c r="G33" s="61"/>
+      <c r="H33" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="I33" s="58"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="27"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="26"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B34" s="41"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="60"/>
       <c r="D34" s="60"/>
       <c r="E34" s="60"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="30"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="57" t="s">
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="G35" s="57"/>
-      <c r="H35" s="58" t="s">
+      <c r="G35" s="61"/>
+      <c r="H35" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="I35" s="58"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="25"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="24"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B36" s="40"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="27"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="26"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B37" s="40"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="27"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="26"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B38" s="40"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="27"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="26"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B39" s="41"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="30"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="29"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
@@ -2652,613 +2686,613 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="62" t="s">
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="63" t="s">
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="62" t="s">
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62" t="s">
+      <c r="G43" s="58"/>
+      <c r="H43" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="I43" s="62"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
     </row>
     <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="42" t="s">
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="G44" s="42" t="s">
+      <c r="G44" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="42" t="s">
+      <c r="H44" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="I44" s="42" t="s">
+      <c r="I44" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="35"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="34"/>
     </row>
     <row r="46" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B46" s="5">
         <v>1</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="45" t="str">
+      <c r="D46" s="32"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="44" t="str">
         <f t="shared" ref="F46:F51" si="0">IF(OR(H46&lt;&gt;"",I46&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G46" s="45" t="s">
+      <c r="G46" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="H46" s="45" t="s">
+      <c r="H46" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="I46" s="45" t="s">
+      <c r="I46" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="J46" s="34"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="35"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="34"/>
     </row>
     <row r="47" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B47" s="5">
         <v>2</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="45" t="str">
+      <c r="D47" s="32"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="44" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G47" s="45" t="s">
+      <c r="G47" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="H47" s="45" t="s">
+      <c r="H47" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="I47" s="45" t="s">
+      <c r="I47" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="J47" s="34"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="35"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="34"/>
     </row>
     <row r="48" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B48" s="5">
         <v>3</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="45" t="str">
+      <c r="D48" s="32"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="44" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G48" s="45" t="s">
+      <c r="G48" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="H48" s="45" t="s">
+      <c r="H48" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="I48" s="45" t="s">
+      <c r="I48" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="J48" s="34"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="35"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="34"/>
     </row>
     <row r="49" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B49" s="5">
         <v>4</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="45" t="str">
+      <c r="D49" s="32"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="44" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G49" s="45" t="s">
+      <c r="G49" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="H49" s="45" t="s">
+      <c r="H49" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="I49" s="45" t="s">
+      <c r="I49" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="J49" s="34"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="35"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="34"/>
     </row>
     <row r="50" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B50" s="5">
         <v>5</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="45" t="str">
+      <c r="D50" s="32"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="44" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G50" s="45" t="s">
+      <c r="G50" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="H50" s="45" t="s">
+      <c r="H50" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="I50" s="45" t="s">
+      <c r="I50" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="J50" s="34"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="35"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="34"/>
     </row>
     <row r="51" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B51" s="5">
         <v>6</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="45" t="str">
+      <c r="D51" s="32"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="44" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G51" s="45" t="s">
+      <c r="G51" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="H51" s="45" t="s">
+      <c r="H51" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I51" s="45" t="s">
+      <c r="I51" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="J51" s="34"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="35"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="34"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="35"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="34"/>
     </row>
     <row r="53" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="37">
+      <c r="B53" s="36">
         <v>1</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="64" t="str">
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="55" t="str">
         <f>IF(OR(H53&lt;&gt;"",I53&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G53" s="58" t="s">
+      <c r="G53" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="H53" s="64" t="s">
+      <c r="H53" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="I53" s="58" t="s">
+      <c r="I53" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="J53" s="39"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="25"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="24"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B54" s="40"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="27"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="26"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B55" s="41"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="30"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="29"/>
     </row>
     <row r="56" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="37">
+      <c r="B56" s="36">
         <v>2</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="64" t="str">
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="55" t="str">
         <f>IF(OR(H56&lt;&gt;"",I56&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G56" s="64" t="s">
+      <c r="G56" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="H56" s="58" t="s">
+      <c r="H56" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="I56" s="58" t="s">
+      <c r="I56" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="J56" s="39"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="25"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="24"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B57" s="41"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="64" t="s">
+      <c r="B57" s="40"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="H57" s="58" t="s">
+      <c r="H57" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="I57" s="58" t="s">
+      <c r="I57" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="J57" s="28"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="30"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="29"/>
     </row>
     <row r="58" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B58" s="5">
         <v>3</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="D58" s="33"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="45" t="str">
+      <c r="D58" s="32"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="44" t="str">
         <f>IF(OR(H58&lt;&gt;"",I58&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G58" s="46" t="s">
+      <c r="G58" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="H58" s="45" t="s">
+      <c r="H58" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="I58" s="46" t="s">
+      <c r="I58" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="J58" s="34"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="35"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="34"/>
     </row>
     <row r="59" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="37">
+      <c r="B59" s="36">
         <v>4</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="64" t="str">
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="55" t="str">
         <f>IF(OR(H59&lt;&gt;"",I59&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G59" s="58" t="s">
+      <c r="G59" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="H59" s="64" t="s">
+      <c r="H59" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="I59" s="58" t="s">
+      <c r="I59" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="J59" s="39"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="25"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="24"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B60" s="41"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="58" t="s">
+      <c r="B60" s="40"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="H60" s="64" t="s">
+      <c r="H60" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="I60" s="58" t="s">
+      <c r="I60" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="J60" s="28"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="30"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="29"/>
     </row>
     <row r="61" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B61" s="5">
         <v>5</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="D61" s="33"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="45" t="str">
+      <c r="D61" s="32"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="44" t="str">
         <f>IF(OR(H61&lt;&gt;"",I61&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G61" s="46" t="s">
+      <c r="G61" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="H61" s="45" t="s">
+      <c r="H61" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="I61" s="46" t="s">
+      <c r="I61" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="J61" s="34"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="35"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="34"/>
     </row>
     <row r="62" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B62" s="5">
         <v>6</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D62" s="33"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="45" t="str">
+      <c r="D62" s="32"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="44" t="str">
         <f>IF(OR(H62&lt;&gt;"",I62&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G62" s="46" t="s">
+      <c r="G62" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="H62" s="46" t="s">
+      <c r="H62" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="I62" s="46" t="s">
+      <c r="I62" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="J62" s="34"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="35"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="34"/>
     </row>
     <row r="63" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="37">
+      <c r="B63" s="36">
         <v>7</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C63" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="45" t="str">
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="44" t="str">
         <f>IF(OR(H63&lt;&gt;"",I63&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G63" s="38" t="s">
+      <c r="G63" s="37" t="s">
         <v>186</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="I63" s="38" t="s">
+      <c r="I63" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="J63" s="39"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="25"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="24"/>
     </row>
     <row r="64" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B64" s="5">
         <v>8</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="47"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="45" t="str">
+      <c r="D64" s="46"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="44" t="str">
         <f>IF(OR(H64&lt;&gt;"",I64&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G64" s="46" t="s">
+      <c r="G64" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="H64" s="45" t="s">
+      <c r="H64" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="I64" s="46" t="s">
+      <c r="I64" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="J64" s="34"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="35"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="34"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="25"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="24"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B67" s="26"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="27"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="26"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B68" s="26"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="27"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="26"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B69" s="26"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="27"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="26"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B70" s="26"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="27"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="26"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B71" s="28"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="30"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="29"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B73" s="48" t="s">
+      <c r="B73" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="48"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="49"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B74" s="3"/>
@@ -3273,57 +3307,21 @@
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
     </row>
     <row r="78" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="48" t="s">
+      <c r="B78" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="48"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="C59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="C56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="C53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:E44"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:L44"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C33:E34"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="C35:E39"/>
-    <mergeCell ref="F35:G39"/>
-    <mergeCell ref="H35:I39"/>
-    <mergeCell ref="C27:E29"/>
-    <mergeCell ref="F27:G29"/>
-    <mergeCell ref="H27:I29"/>
-    <mergeCell ref="C30:E32"/>
-    <mergeCell ref="F30:G32"/>
-    <mergeCell ref="H30:I32"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C17:L17"/>
@@ -3333,6 +3331,42 @@
     <mergeCell ref="J24:L26"/>
     <mergeCell ref="F25:G26"/>
     <mergeCell ref="H25:I26"/>
+    <mergeCell ref="C27:E29"/>
+    <mergeCell ref="F27:G29"/>
+    <mergeCell ref="H27:I29"/>
+    <mergeCell ref="C30:E32"/>
+    <mergeCell ref="F30:G32"/>
+    <mergeCell ref="H30:I32"/>
+    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="C35:E39"/>
+    <mergeCell ref="F35:G39"/>
+    <mergeCell ref="H35:I39"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:E44"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:L44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="C56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="C59:E60"/>
+    <mergeCell ref="F59:F60"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/report/Report-Inspection-Sarana Bantu Pemanduan 2.xlsx
+++ b/report/Report-Inspection-Sarana Bantu Pemanduan 2.xlsx
@@ -207,9 +207,6 @@
     <t>${table:operator.nama}</t>
   </si>
   <si>
-    <t>${table:operator.jabatan}</t>
-  </si>
-  <si>
     <t>B. DOKUMEN PERALATAN KOMUNIKASI</t>
   </si>
   <si>
@@ -748,6 +745,9 @@
   </si>
   <si>
     <t>${keterangan_kkm}</t>
+  </si>
+  <si>
+    <t>Radio Operator</t>
   </si>
 </sst>
 </file>
@@ -1115,61 +1115,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1452,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1469,15 +1469,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1493,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1505,15 +1505,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -1530,28 +1530,28 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52" t="s">
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1561,7 +1561,7 @@
       <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="52"/>
+      <c r="G11" s="51"/>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -1591,24 +1591,24 @@
         <v>2</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="E13" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="67"/>
+      <c r="H13" s="49"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -1628,30 +1628,30 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
     </row>
     <row r="18" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1875,15 +1875,15 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
@@ -1894,28 +1894,28 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52" t="s">
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="F33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="52"/>
+      <c r="G33" s="51"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="21" t="s">
@@ -1935,24 +1935,24 @@
         <v>58</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>59</v>
+        <v>209</v>
       </c>
       <c r="D34" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="F34" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="F34" s="48" t="s">
+      <c r="G34" s="21" t="s">
         <v>198</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1969,7 +1969,7 @@
         <v>24</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>13</v>
@@ -1986,30 +1986,30 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="C38" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>64</v>
-      </c>
       <c r="D38" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="E38" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="F38" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="F38" s="48" t="s">
+      <c r="G38" s="21" t="s">
         <v>202</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -2064,10 +2064,10 @@
       <c r="G45" s="29"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="49"/>
+      <c r="A47" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="50"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
@@ -2086,20 +2086,13 @@
       <c r="B51" s="30"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="50"/>
+      <c r="A52" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:G11"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="L17:N17"/>
@@ -2114,6 +2107,13 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="80" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2138,20 +2138,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="A1" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2166,7 +2166,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -2179,42 +2179,42 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
+      <c r="C8" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>73</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
       <c r="H9" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
@@ -2223,17 +2223,17 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>75</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>76</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
       <c r="H10" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
@@ -2242,17 +2242,17 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>78</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>79</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
       <c r="H11" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I11" s="32"/>
       <c r="J11" s="32"/>
@@ -2261,17 +2261,17 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>81</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>82</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
       <c r="H12" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
@@ -2280,17 +2280,17 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>84</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>85</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
@@ -2299,17 +2299,17 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>87</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>88</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
       <c r="H14" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
@@ -2318,42 +2318,42 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B17" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
+      <c r="C17" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
       <c r="H18" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
@@ -2361,17 +2361,17 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
@@ -2379,17 +2379,17 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
@@ -2397,17 +2397,17 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B21" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
@@ -2415,341 +2415,341 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="51" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="52" t="s">
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52" t="s">
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="66" t="s">
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52" t="s">
+      <c r="G25" s="51"/>
+      <c r="H25" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="61" t="s">
+      <c r="G27" s="59"/>
+      <c r="H27" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="61"/>
-      <c r="H27" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="I27" s="56"/>
+      <c r="I27" s="60"/>
       <c r="J27" s="38"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="39"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="I28" s="56"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="60"/>
       <c r="J28" s="25"/>
       <c r="K28" s="18"/>
       <c r="L28" s="26"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29" s="39"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="I29" s="56"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" s="60"/>
       <c r="J29" s="25"/>
       <c r="K29" s="18"/>
       <c r="L29" s="26"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" s="61"/>
-      <c r="H30" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="56"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30" s="60"/>
       <c r="J30" s="38"/>
       <c r="K30" s="23"/>
       <c r="L30" s="24"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B31" s="39"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
       <c r="J31" s="25"/>
       <c r="K31" s="18"/>
       <c r="L31" s="26"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B32" s="40"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
       <c r="J32" s="27"/>
       <c r="K32" s="28"/>
       <c r="L32" s="29"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="61"/>
-      <c r="H33" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="I33" s="56"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="60"/>
       <c r="J33" s="25"/>
       <c r="K33" s="18"/>
       <c r="L33" s="26"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B34" s="40"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
       <c r="J34" s="27"/>
       <c r="K34" s="28"/>
       <c r="L34" s="29"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="61" t="s">
+      <c r="G35" s="59"/>
+      <c r="H35" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="G35" s="61"/>
-      <c r="H35" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="I35" s="56"/>
+      <c r="I35" s="60"/>
       <c r="J35" s="38"/>
       <c r="K35" s="23"/>
       <c r="L35" s="24"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B36" s="39"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
       <c r="J36" s="25"/>
       <c r="K36" s="18"/>
       <c r="L36" s="26"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B37" s="39"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
       <c r="J37" s="25"/>
       <c r="K37" s="18"/>
       <c r="L37" s="26"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B38" s="39"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
       <c r="J38" s="25"/>
       <c r="K38" s="18"/>
       <c r="L38" s="26"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B39" s="40"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
       <c r="J39" s="27"/>
       <c r="K39" s="28"/>
       <c r="L39" s="29"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="3" t="s">
+    </row>
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="59" t="s">
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58" t="s">
+      <c r="G43" s="64"/>
+      <c r="H43" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58" t="s">
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+    </row>
+    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="41" t="s">
         <v>123</v>
-      </c>
-      <c r="I43" s="58"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-    </row>
-    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="41" t="s">
-        <v>124</v>
       </c>
       <c r="G44" s="41" t="s">
         <v>15</v>
       </c>
       <c r="H44" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="I44" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B45" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="43" t="s">
         <v>127</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>128</v>
       </c>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
@@ -2766,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="34"/>
@@ -2775,13 +2775,13 @@
         <v></v>
       </c>
       <c r="G46" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="H46" s="44" t="s">
+      <c r="I46" s="44" t="s">
         <v>131</v>
-      </c>
-      <c r="I46" s="44" t="s">
-        <v>132</v>
       </c>
       <c r="J46" s="33"/>
       <c r="K46" s="32"/>
@@ -2792,7 +2792,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="34"/>
@@ -2801,13 +2801,13 @@
         <v></v>
       </c>
       <c r="G47" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="H47" s="44" t="s">
+      <c r="I47" s="44" t="s">
         <v>135</v>
-      </c>
-      <c r="I47" s="44" t="s">
-        <v>136</v>
       </c>
       <c r="J47" s="33"/>
       <c r="K47" s="32"/>
@@ -2818,7 +2818,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D48" s="32"/>
       <c r="E48" s="34"/>
@@ -2827,13 +2827,13 @@
         <v></v>
       </c>
       <c r="G48" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="H48" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="H48" s="44" t="s">
+      <c r="I48" s="44" t="s">
         <v>139</v>
-      </c>
-      <c r="I48" s="44" t="s">
-        <v>140</v>
       </c>
       <c r="J48" s="33"/>
       <c r="K48" s="32"/>
@@ -2844,7 +2844,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" s="32"/>
       <c r="E49" s="34"/>
@@ -2853,13 +2853,13 @@
         <v></v>
       </c>
       <c r="G49" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="H49" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="H49" s="44" t="s">
+      <c r="I49" s="44" t="s">
         <v>143</v>
-      </c>
-      <c r="I49" s="44" t="s">
-        <v>144</v>
       </c>
       <c r="J49" s="33"/>
       <c r="K49" s="32"/>
@@ -2870,7 +2870,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="32"/>
       <c r="E50" s="34"/>
@@ -2879,13 +2879,13 @@
         <v></v>
       </c>
       <c r="G50" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="H50" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="H50" s="44" t="s">
+      <c r="I50" s="44" t="s">
         <v>147</v>
-      </c>
-      <c r="I50" s="44" t="s">
-        <v>148</v>
       </c>
       <c r="J50" s="33"/>
       <c r="K50" s="32"/>
@@ -2896,7 +2896,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="32"/>
       <c r="E51" s="34"/>
@@ -2905,13 +2905,13 @@
         <v></v>
       </c>
       <c r="G51" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="H51" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="H51" s="44" t="s">
+      <c r="I51" s="44" t="s">
         <v>151</v>
-      </c>
-      <c r="I51" s="44" t="s">
-        <v>152</v>
       </c>
       <c r="J51" s="33"/>
       <c r="K51" s="32"/>
@@ -2919,10 +2919,10 @@
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B52" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="43" t="s">
         <v>153</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>154</v>
       </c>
       <c r="D52" s="32"/>
       <c r="E52" s="32"/>
@@ -2938,23 +2938,23 @@
       <c r="B53" s="36">
         <v>1</v>
       </c>
-      <c r="C53" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="55" t="str">
+      <c r="C53" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="66" t="str">
         <f>IF(OR(H53&lt;&gt;"",I53&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G53" s="56" t="s">
+      <c r="G53" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="H53" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="H53" s="55" t="s">
+      <c r="I53" s="60" t="s">
         <v>157</v>
-      </c>
-      <c r="I53" s="56" t="s">
-        <v>158</v>
       </c>
       <c r="J53" s="38"/>
       <c r="K53" s="23"/>
@@ -2962,26 +2962,26 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B54" s="39"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="56"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="60"/>
       <c r="J54" s="25"/>
       <c r="K54" s="18"/>
       <c r="L54" s="26"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55" s="40"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="56"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="60"/>
       <c r="J55" s="27"/>
       <c r="K55" s="28"/>
       <c r="L55" s="29"/>
@@ -2990,23 +2990,23 @@
       <c r="B56" s="36">
         <v>2</v>
       </c>
-      <c r="C56" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="55" t="str">
+      <c r="C56" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="66" t="str">
         <f>IF(OR(H56&lt;&gt;"",I56&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G56" s="55" t="s">
+      <c r="G56" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="H56" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="H56" s="56" t="s">
+      <c r="I56" s="60" t="s">
         <v>161</v>
-      </c>
-      <c r="I56" s="56" t="s">
-        <v>162</v>
       </c>
       <c r="J56" s="38"/>
       <c r="K56" s="23"/>
@@ -3014,18 +3014,18 @@
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B57" s="40"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55" t="s">
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="H57" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="H57" s="56" t="s">
+      <c r="I57" s="60" t="s">
         <v>164</v>
-      </c>
-      <c r="I57" s="56" t="s">
-        <v>165</v>
       </c>
       <c r="J57" s="27"/>
       <c r="K57" s="28"/>
@@ -3036,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" s="32"/>
       <c r="E58" s="34"/>
@@ -3045,13 +3045,13 @@
         <v></v>
       </c>
       <c r="G58" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="H58" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="H58" s="44" t="s">
+      <c r="I58" s="45" t="s">
         <v>168</v>
-      </c>
-      <c r="I58" s="45" t="s">
-        <v>169</v>
       </c>
       <c r="J58" s="33"/>
       <c r="K58" s="32"/>
@@ -3061,23 +3061,23 @@
       <c r="B59" s="36">
         <v>4</v>
       </c>
-      <c r="C59" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="55" t="str">
+      <c r="C59" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="66" t="str">
         <f>IF(OR(H59&lt;&gt;"",I59&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G59" s="56" t="s">
+      <c r="G59" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="H59" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="H59" s="55" t="s">
+      <c r="I59" s="60" t="s">
         <v>172</v>
-      </c>
-      <c r="I59" s="56" t="s">
-        <v>173</v>
       </c>
       <c r="J59" s="38"/>
       <c r="K59" s="23"/>
@@ -3085,18 +3085,18 @@
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B60" s="40"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="56" t="s">
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="H60" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="H60" s="55" t="s">
+      <c r="I60" s="60" t="s">
         <v>175</v>
-      </c>
-      <c r="I60" s="56" t="s">
-        <v>176</v>
       </c>
       <c r="J60" s="27"/>
       <c r="K60" s="28"/>
@@ -3107,7 +3107,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="32"/>
       <c r="E61" s="34"/>
@@ -3116,13 +3116,13 @@
         <v></v>
       </c>
       <c r="G61" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="H61" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="H61" s="44" t="s">
+      <c r="I61" s="45" t="s">
         <v>179</v>
-      </c>
-      <c r="I61" s="45" t="s">
-        <v>180</v>
       </c>
       <c r="J61" s="33"/>
       <c r="K61" s="32"/>
@@ -3133,7 +3133,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="32"/>
       <c r="E62" s="34"/>
@@ -3142,13 +3142,13 @@
         <v></v>
       </c>
       <c r="G62" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="H62" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="H62" s="45" t="s">
+      <c r="I62" s="45" t="s">
         <v>183</v>
-      </c>
-      <c r="I62" s="45" t="s">
-        <v>184</v>
       </c>
       <c r="J62" s="33"/>
       <c r="K62" s="32"/>
@@ -3158,23 +3158,23 @@
       <c r="B63" s="36">
         <v>7</v>
       </c>
-      <c r="C63" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
+      <c r="C63" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
       <c r="F63" s="44" t="str">
         <f>IF(OR(H63&lt;&gt;"",I63&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
       <c r="G63" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="H63" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="I63" s="37" t="s">
         <v>187</v>
-      </c>
-      <c r="I63" s="37" t="s">
-        <v>188</v>
       </c>
       <c r="J63" s="38"/>
       <c r="K63" s="23"/>
@@ -3185,7 +3185,7 @@
         <v>8</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="46"/>
       <c r="E64" s="34"/>
@@ -3194,13 +3194,13 @@
         <v></v>
       </c>
       <c r="G64" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="H64" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="H64" s="44" t="s">
+      <c r="I64" s="45" t="s">
         <v>191</v>
-      </c>
-      <c r="I64" s="45" t="s">
-        <v>192</v>
       </c>
       <c r="J64" s="33"/>
       <c r="K64" s="46"/>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B66" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C66" s="23"/>
       <c r="D66" s="23"/>
@@ -3287,12 +3287,12 @@
       <c r="L71" s="29"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B73" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
+      <c r="B73" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B74" s="3"/>
@@ -3313,15 +3313,51 @@
       <c r="E77" s="28"/>
     </row>
     <row r="78" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
+      <c r="B78" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="C59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="C56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="C53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:E44"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:L44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="C35:E39"/>
+    <mergeCell ref="F35:G39"/>
+    <mergeCell ref="H35:I39"/>
+    <mergeCell ref="C27:E29"/>
+    <mergeCell ref="F27:G29"/>
+    <mergeCell ref="H27:I29"/>
+    <mergeCell ref="C30:E32"/>
+    <mergeCell ref="F30:G32"/>
+    <mergeCell ref="H30:I32"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C17:L17"/>
@@ -3331,42 +3367,6 @@
     <mergeCell ref="J24:L26"/>
     <mergeCell ref="F25:G26"/>
     <mergeCell ref="H25:I26"/>
-    <mergeCell ref="C27:E29"/>
-    <mergeCell ref="F27:G29"/>
-    <mergeCell ref="H27:I29"/>
-    <mergeCell ref="C30:E32"/>
-    <mergeCell ref="F30:G32"/>
-    <mergeCell ref="H30:I32"/>
-    <mergeCell ref="C33:E34"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="C35:E39"/>
-    <mergeCell ref="F35:G39"/>
-    <mergeCell ref="H35:I39"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:E44"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:L44"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="C56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="C59:E60"/>
-    <mergeCell ref="F59:F60"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/report/Report-Inspection-Sarana Bantu Pemanduan 2.xlsx
+++ b/report/Report-Inspection-Sarana Bantu Pemanduan 2.xlsx
@@ -747,7 +747,7 @@
     <t>${keterangan_kkm}</t>
   </si>
   <si>
-    <t>Radio Operator</t>
+    <t>${table:operator.jabatan}</t>
   </si>
 </sst>
 </file>
@@ -1119,14 +1119,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1138,36 +1168,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1530,28 +1530,28 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51" t="s">
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1561,7 +1561,7 @@
       <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="51"/>
+      <c r="G11" s="53"/>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -1628,30 +1628,30 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
     </row>
     <row r="18" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1894,28 +1894,28 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51" t="s">
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="F33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="51"/>
+      <c r="G33" s="53"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="21" t="s">
@@ -2086,13 +2086,20 @@
       <c r="B51" s="30"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="52"/>
+      <c r="B52" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="L17:N17"/>
@@ -2107,13 +2114,6 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="80" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2138,20 +2138,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2189,18 +2189,18 @@
       <c r="B8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
@@ -2328,18 +2328,18 @@
       <c r="B17" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="33" t="s">
@@ -2422,103 +2422,103 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51" t="s">
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="57" t="s">
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51" t="s">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="57" t="s">
+      <c r="G25" s="53"/>
+      <c r="H25" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="59" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="59"/>
-      <c r="H27" s="60" t="s">
+      <c r="G27" s="62"/>
+      <c r="H27" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="I27" s="60"/>
+      <c r="I27" s="57"/>
       <c r="J27" s="38"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="39"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="60" t="s">
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="I28" s="60"/>
+      <c r="I28" s="57"/>
       <c r="J28" s="25"/>
       <c r="K28" s="18"/>
       <c r="L28" s="26"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29" s="39"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="60" t="s">
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="I29" s="60"/>
+      <c r="I29" s="57"/>
       <c r="J29" s="25"/>
       <c r="K29" s="18"/>
       <c r="L29" s="26"/>
@@ -2527,45 +2527,45 @@
       <c r="B30" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="59" t="s">
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="G30" s="59"/>
-      <c r="H30" s="60" t="s">
+      <c r="G30" s="62"/>
+      <c r="H30" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="I30" s="60"/>
+      <c r="I30" s="57"/>
       <c r="J30" s="38"/>
       <c r="K30" s="23"/>
       <c r="L30" s="24"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B31" s="39"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
       <c r="J31" s="25"/>
       <c r="K31" s="18"/>
       <c r="L31" s="26"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B32" s="40"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
       <c r="J32" s="27"/>
       <c r="K32" s="28"/>
       <c r="L32" s="29"/>
@@ -2574,32 +2574,32 @@
       <c r="B33" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="59" t="s">
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="G33" s="59"/>
-      <c r="H33" s="60" t="s">
+      <c r="G33" s="62"/>
+      <c r="H33" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="I33" s="60"/>
+      <c r="I33" s="57"/>
       <c r="J33" s="25"/>
       <c r="K33" s="18"/>
       <c r="L33" s="26"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B34" s="40"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
       <c r="J34" s="27"/>
       <c r="K34" s="28"/>
       <c r="L34" s="29"/>
@@ -2608,71 +2608,71 @@
       <c r="B35" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="59" t="s">
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="G35" s="59"/>
-      <c r="H35" s="60" t="s">
+      <c r="G35" s="62"/>
+      <c r="H35" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="60"/>
+      <c r="I35" s="57"/>
       <c r="J35" s="38"/>
       <c r="K35" s="23"/>
       <c r="L35" s="24"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B36" s="39"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
       <c r="J36" s="25"/>
       <c r="K36" s="18"/>
       <c r="L36" s="26"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B37" s="39"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
       <c r="J37" s="25"/>
       <c r="K37" s="18"/>
       <c r="L37" s="26"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B38" s="39"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
       <c r="J38" s="25"/>
       <c r="K38" s="18"/>
       <c r="L38" s="26"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B39" s="40"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
       <c r="J39" s="27"/>
       <c r="K39" s="28"/>
       <c r="L39" s="29"/>
@@ -2686,48 +2686,48 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="64" t="s">
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="65" t="s">
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="64" t="s">
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64" t="s">
+      <c r="G43" s="59"/>
+      <c r="H43" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="I43" s="64"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
     </row>
     <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
       <c r="F44" s="41" t="s">
         <v>123</v>
       </c>
@@ -2740,9 +2740,9 @@
       <c r="I44" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B45" s="42" t="s">
@@ -2938,22 +2938,22 @@
       <c r="B53" s="36">
         <v>1</v>
       </c>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="66" t="str">
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="56" t="str">
         <f>IF(OR(H53&lt;&gt;"",I53&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G53" s="60" t="s">
+      <c r="G53" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="H53" s="66" t="s">
+      <c r="H53" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="I53" s="60" t="s">
+      <c r="I53" s="57" t="s">
         <v>157</v>
       </c>
       <c r="J53" s="38"/>
@@ -2962,26 +2962,26 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B54" s="39"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="60"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="57"/>
       <c r="J54" s="25"/>
       <c r="K54" s="18"/>
       <c r="L54" s="26"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55" s="40"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="60"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="57"/>
       <c r="J55" s="27"/>
       <c r="K55" s="28"/>
       <c r="L55" s="29"/>
@@ -2990,22 +2990,22 @@
       <c r="B56" s="36">
         <v>2</v>
       </c>
-      <c r="C56" s="61" t="s">
+      <c r="C56" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="66" t="str">
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="56" t="str">
         <f>IF(OR(H56&lt;&gt;"",I56&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G56" s="66" t="s">
+      <c r="G56" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="H56" s="60" t="s">
+      <c r="H56" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="I56" s="60" t="s">
+      <c r="I56" s="57" t="s">
         <v>161</v>
       </c>
       <c r="J56" s="38"/>
@@ -3014,17 +3014,17 @@
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B57" s="40"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66" t="s">
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="H57" s="60" t="s">
+      <c r="H57" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="I57" s="60" t="s">
+      <c r="I57" s="57" t="s">
         <v>164</v>
       </c>
       <c r="J57" s="27"/>
@@ -3061,22 +3061,22 @@
       <c r="B59" s="36">
         <v>4</v>
       </c>
-      <c r="C59" s="61" t="s">
+      <c r="C59" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="66" t="str">
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="56" t="str">
         <f>IF(OR(H59&lt;&gt;"",I59&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G59" s="60" t="s">
+      <c r="G59" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="H59" s="66" t="s">
+      <c r="H59" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="I59" s="60" t="s">
+      <c r="I59" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J59" s="38"/>
@@ -3085,17 +3085,17 @@
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B60" s="40"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="60" t="s">
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="H60" s="66" t="s">
+      <c r="H60" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="I60" s="60" t="s">
+      <c r="I60" s="57" t="s">
         <v>175</v>
       </c>
       <c r="J60" s="27"/>
@@ -3158,11 +3158,11 @@
       <c r="B63" s="36">
         <v>7</v>
       </c>
-      <c r="C63" s="67" t="s">
+      <c r="C63" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
       <c r="F63" s="44" t="str">
         <f>IF(OR(H63&lt;&gt;"",I63&lt;&gt;""), "", "")</f>
         <v></v>
@@ -3322,42 +3322,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="C59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="C56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="C53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:E44"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:L44"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C33:E34"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="C35:E39"/>
-    <mergeCell ref="F35:G39"/>
-    <mergeCell ref="H35:I39"/>
-    <mergeCell ref="C27:E29"/>
-    <mergeCell ref="F27:G29"/>
-    <mergeCell ref="H27:I29"/>
-    <mergeCell ref="C30:E32"/>
-    <mergeCell ref="F30:G32"/>
-    <mergeCell ref="H30:I32"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C17:L17"/>
@@ -3367,6 +3331,42 @@
     <mergeCell ref="J24:L26"/>
     <mergeCell ref="F25:G26"/>
     <mergeCell ref="H25:I26"/>
+    <mergeCell ref="C27:E29"/>
+    <mergeCell ref="F27:G29"/>
+    <mergeCell ref="H27:I29"/>
+    <mergeCell ref="C30:E32"/>
+    <mergeCell ref="F30:G32"/>
+    <mergeCell ref="H30:I32"/>
+    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="C35:E39"/>
+    <mergeCell ref="F35:G39"/>
+    <mergeCell ref="H35:I39"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:E44"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:L44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="C56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="C59:E60"/>
+    <mergeCell ref="F59:F60"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
